--- a/public/backend/assets/docs/Compare.xlsx
+++ b/public/backend/assets/docs/Compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379C58F1-CE29-4609-9704-66B4EF7C71C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41772312-E569-436D-9B5A-DD7FC5C4CB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C98F3B5B-2295-46AD-9AD3-99351116C7F3}"/>
   </bookViews>
@@ -36,31 +36,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>SL No</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Code</t>
   </si>
   <si>
     <t>Qty</t>
   </si>
+  <si>
+    <t>F13316</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,34 +423,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356F32C6-92F4-4BD3-A9F9-EEDDCEB90BA8}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="B2">
+        <v>-6</v>
       </c>
     </row>
   </sheetData>

--- a/public/backend/assets/docs/Compare.xlsx
+++ b/public/backend/assets/docs/Compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41772312-E569-436D-9B5A-DD7FC5C4CB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379C58F1-CE29-4609-9704-66B4EF7C71C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C98F3B5B-2295-46AD-9AD3-99351116C7F3}"/>
   </bookViews>
@@ -36,34 +36,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>SL No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
   <si>
     <t>Code</t>
   </si>
   <si>
     <t>Qty</t>
   </si>
-  <si>
-    <t>F13316</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212529"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,9 +83,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,31 +419,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356F32C6-92F4-4BD3-A9F9-EEDDCEB90BA8}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>-6</v>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/public/backend/assets/docs/Compare.xlsx
+++ b/public/backend/assets/docs/Compare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379C58F1-CE29-4609-9704-66B4EF7C71C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E16B176-4F12-4EF6-80A5-D29BCA211A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C98F3B5B-2295-46AD-9AD3-99351116C7F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C98F3B5B-2295-46AD-9AD3-99351116C7F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>SL No</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Code</t>
   </si>
@@ -419,33 +413,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356F32C6-92F4-4BD3-A9F9-EEDDCEB90BA8}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
         <v>1</v>
       </c>
     </row>
